--- a/TestSheet.xlsx
+++ b/TestSheet.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52A9777D-5A9D-482B-AA63-08FE11BAA563}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD3FD20-9711-4F38-8F80-66C05CCA5594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -44,13 +44,13 @@
     <t>amazon</t>
   </si>
   <si>
-    <t>https://amazon.co.in</t>
-  </si>
-  <si>
     <t>google</t>
   </si>
   <si>
     <t>google.co.in</t>
+  </si>
+  <si>
+    <t>https://amazon.in</t>
   </si>
 </sst>
 </file>
@@ -385,9 +385,9 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -395,7 +395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -417,15 +417,15 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -433,20 +433,20 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="B3" t="s">
-        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/TestSheet.xlsx
+++ b/TestSheet.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFD3FD20-9711-4F38-8F80-66C05CCA5594}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E742FECB-1969-405C-926B-47CD8FF18130}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
@@ -381,8 +381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -416,7 +416,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B629C15-A41D-44E5-8F82-F3C15D50631E}">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
